--- a/Create_Certificates/Name_list/names.xlsx
+++ b/Create_Certificates/Name_list/names.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">Jobin</t>
@@ -55,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
   </cols>
@@ -151,35 +155,38 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Create_Certificates/Name_list/names.xlsx
+++ b/Create_Certificates/Name_list/names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -29,21 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jobin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gokul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anandhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishnu</t>
   </si>
 </sst>
 </file>
@@ -140,13 +125,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
   </cols>
@@ -164,31 +149,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
